--- a/library.xlsx
+++ b/library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\URA\URA-word-seperator\bahnar-word-split-and-example-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31BC0D-A5D1-4E81-ACDD-43EE2E12777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCE895-63B0-4116-AA78-1CC3C8859C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19710" yWindow="3285" windowWidth="15015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B176"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A154" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/library.xlsx
+++ b/library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\URA\URA-word-seperator\bahnar-word-split-and-example-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bahnar-word-split-and-example-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62032F0-8E4C-46E0-A6AD-3AD842736D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED91C9E-5B42-468C-B754-1F93E0D7F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="15015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pairs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>Vietnamese</t>
   </si>
@@ -44,186 +44,6 @@
     <t>Bahnar</t>
   </si>
   <si>
-    <t>Không ai thích một chú lợn tô son.</t>
-  </si>
-  <si>
-    <t>Nobody loves a pig wearing lipstick.</t>
-  </si>
-  <si>
-    <t>Ánh sáng cháy sáng gấp đôi chỉ cháy được một nửa thời gian.</t>
-  </si>
-  <si>
-    <t>The light that burns twice as bright burns half as long.</t>
-  </si>
-  <si>
-    <t>Bạn nhận ra mình không đơn độc khi ngồi trong phòng ngủ mát-xa bắp chân sau một ngày dài chơi trò kéo co với Ông nội Joe trong bệnh viện.</t>
-  </si>
-  <si>
-    <t>You realize you're not alone as you sit in your bedroom massaging your calves after a long day of playing tug-of-war with Grandpa Joe in the hospital.</t>
-  </si>
-  <si>
-    <t>Henry không thể quyết định mình là thợ sửa ô tô hay linh mục.</t>
-  </si>
-  <si>
-    <t>Henry couldn't decide if he was an auto mechanic or a priest.</t>
-  </si>
-  <si>
-    <t>Tôi rất vui khi nhận được khoản quyên góp của bạn; bất kỳ số tiền nào cũng sẽ được trân trọng.</t>
-  </si>
-  <si>
-    <t>I am happy to take your donation; any amount will be greatly appreciated.</t>
-  </si>
-  <si>
-    <t>Từ trẻ con, đến trẻ con, rồi lại thành trẻ con chỉ là vấn đề thời gian.</t>
-  </si>
-  <si>
-    <t>Going from child, to childish, to childlike is only a matter of time.</t>
-  </si>
-  <si>
-    <t>Cà chua là vũ khí tuyệt vời khi không có bóng nước.</t>
-  </si>
-  <si>
-    <t>Tomatoes make great weapons when water balloons aren’t available.</t>
-  </si>
-  <si>
-    <t>Lũ lợn bị xúc phạm vì chúng được gọi là hamburger.</t>
-  </si>
-  <si>
-    <t>The pigs were insulted that they were named hamburgers.</t>
-  </si>
-  <si>
-    <t>Khoảnh khắc phát hiện ra điều thú vị nhất mà tôi từng có là khi tôi nhận ra rằng hướng dẫn trên bao bì thực phẩm chỉ là hướng dẫn.</t>
-  </si>
-  <si>
-    <t>The most exciting eureka moment I've had was when I realized that the instructions on food packets were just guidelines.</t>
-  </si>
-  <si>
-    <t>Khi còn nhỏ, tôi đã bị một cánh cửa ô tô đóng sầm vào tay và tôi vẫn nhớ rất rõ điều đó.</t>
-  </si>
-  <si>
-    <t>When I was little I had a car door slammed shut on my hand and I still remember it quite vividly.</t>
-  </si>
-  <si>
-    <t>Tôi tin vào mọi thứ được viết bằng mực tím.</t>
-  </si>
-  <si>
-    <t>I trust everything that's written in purple ink.</t>
-  </si>
-  <si>
-    <t>Kem tỏi là món ưa thích của cô ấy.</t>
-  </si>
-  <si>
-    <t>Garlic ice-cream was her favorite.</t>
-  </si>
-  <si>
-    <t>Khi tiền bạc eo hẹp, anh ấy sẽ lấy tiền ăn trưa từ giếng ước địa phương.</t>
-  </si>
-  <si>
-    <t>When money was tight, he'd get his lunch money from the local wishing well.</t>
-  </si>
-  <si>
-    <t>Mèo là vật nuôi tốt, vì chúng sạch sẽ và không ồn ào.</t>
-  </si>
-  <si>
-    <t>Cats are good pets, for they are clean and are not noisy.</t>
-  </si>
-  <si>
-    <t>Bí quyết để trẻ em ăn bất cứ thứ gì là cho chúng ăn bù.</t>
-  </si>
-  <si>
-    <t>The trick to getting kids to eat anything is to put catchup on it.</t>
-  </si>
-  <si>
-    <t>Tôi là một lò sưởi sống.</t>
-  </si>
-  <si>
-    <t>I’m a living furnace.</t>
-  </si>
-  <si>
-    <t>Mọi thứ diễn ra rất tốt cho đến khi tôi bị một con hươu cao cổ màu tím tấn công.</t>
-  </si>
-  <si>
-    <t>Everything was going so well until I was accosted by a purple giraffe.</t>
-  </si>
-  <si>
-    <t>Anh ấy là thành viên duy nhất trong câu lạc bộ không thích bánh pudding mận.</t>
-  </si>
-  <si>
-    <t>He was the only member of the club who didn't like plum pudding.</t>
-  </si>
-  <si>
-    <t>Chúng ta nên chơi lego ở trại hè.</t>
-  </si>
-  <si>
-    <t>We should play with legos at camp.</t>
-  </si>
-  <si>
-    <t>Anh ấy thấy nghệ thuật của mình không bao giờ tiến triển khi anh ấy thực sự sử dụng mồ hôi và nước mắt của mình.</t>
-  </si>
-  <si>
-    <t>He found his art never progressed when he literally used his sweat and tears.</t>
-  </si>
-  <si>
-    <t>Sự trớ trêu của tình huống này không ai trong phòng không nhận ra.</t>
-  </si>
-  <si>
-    <t>The irony of the situation wasn't lost on anyone in the room.</t>
-  </si>
-  <si>
-    <t>Cô ấy khăng khăng rằng dọn tủ quần áo là chìa khóa để lái xe tốt.</t>
-  </si>
-  <si>
-    <t>She insisted that cleaning out your closet was the key to good driving.</t>
-  </si>
-  <si>
-    <t>Đó là cách anh ấy giành được 1 triệu đô la.</t>
-  </si>
-  <si>
-    <t>That was how he came to win $1 million.</t>
-  </si>
-  <si>
-    <t>Carol uống máu như thể cô ấy là ma cà rồng.</t>
-  </si>
-  <si>
-    <t>Carol drank the blood as if she were a vampire.</t>
-  </si>
-  <si>
-    <t>Sương mù dày đặc đến mức ngay cả tia laser cũng quyết định rằng không đáng để nỗ lực.</t>
-  </si>
-  <si>
-    <t>The fog was so dense even a laser decided it wasn't worth the effort.</t>
-  </si>
-  <si>
-    <t>Nên ăn trứng vào thứ năm để luyện tập hợp xướng.</t>
-  </si>
-  <si>
-    <t>Eating eggs on Thursday for choir practice was recommended.</t>
-  </si>
-  <si>
-    <t>Để tôi giúp bạn mang hành lý.</t>
-  </si>
-  <si>
-    <t>Let me help you with your baggage.</t>
-  </si>
-  <si>
-    <t>Tiếng chó sủa và tiếng trẻ mới biết đi la hét có khả năng độc đáo biến những người hàng xóm thân thiện thành kẻ thù khó chịu.</t>
-  </si>
-  <si>
-    <t>Barking dogs and screaming toddlers have the unique ability to turn friendly neighbors into cranky enemies.</t>
-  </si>
-  <si>
-    <t>Anh ấy từng nhầm lẫn giữa người lính và đôi vai, nhưng với tư cách là một quân nhân, giờ đây anh ấy coi trọng trách nhiệm của người lính.</t>
-  </si>
-  <si>
-    <t>He used to get confused between soldiers and shoulders, but as a military man, he now soldiers responsibility.</t>
-  </si>
-  <si>
-    <t>Tôi luôn mơ về việc bị mắc kẹt trên một hoang đảo cho đến khi điều đó thực sự xảy ra.</t>
-  </si>
-  <si>
-    <t>I always dreamed about being stranded on a desert island until it actually happened.</t>
-  </si>
-  <si>
     <t>Anh ấy loay hoay trong bóng tối tìm công tắc đèn, nhưng khi cuối cùng anh ấy tìm thấy thì đã có người ở đó rồi.</t>
   </si>
   <si>
@@ -501,17 +321,194 @@
   </si>
   <si>
     <t>He decided to fake his disappearance to avoid jail.</t>
+  </si>
+  <si>
+    <t>Thực hiện chính sách hỗ trợ phụ nữ thuộc hộ nghèo là người dân tộc thiểu số, sinh con đúng chính sách dân số theo Nghị định số 39 của Chính phủ.</t>
+  </si>
+  <si>
+    <t>Pôm tôdrong tôgum mai oh oei lôm kôbraê unh hnam dônuh la mai oh kon koâng, ñeh kon tro tôdrong daân soâ boi Nghi ñinh ksoâ 39 ñông Chinh phu.</t>
+  </si>
+  <si>
+    <t>Theo đó, từ năm 2015 đến 2018, huyện Vĩnh Thạnh đã lập thủ tục giải quyết cho 307 phụ nữ thuộc hộ nghèo đồng bào DTTS, được hưởng chính sách hỗ trợ với tổng số tiền 614 triệu đồng.</t>
+  </si>
+  <si>
+    <t>Boi noh, ñông sônaêm 2015 truh sônaêm 2018, huyeân Vinh Thanh jôh pôm thu tuc tôgum aên 307 mai oh oei lôm kôbraê unh hnam dônuh naê ma kon koâng ñei höông tôdrong tôgum adring pôting ksoâ jeân 614 trieâu ñoâng.</t>
+  </si>
+  <si>
+    <t>Riêng trong năm 2018 có 71 người với số tiền hỗ trợ 142 triệu đồng. Định mức hỗ trợ 2 triệu đồng/người.</t>
+  </si>
+  <si>
+    <t>Nghị định 39 của Chính phủ ban hành, thể hiện sự quan tâm của Đảng, Nhà nước đối với phụ nữ thuộc hộ nghèo là người dân tộc thiểu số, khi sinh con đúng chính sách dân số.</t>
+  </si>
+  <si>
+    <t>Nghi ñinh 39 ñông Chinh phu aên lech, aên boh tôdrong ngo hnhei ñông Ñang, kôpal adring mai oh oei lôm kôbraê unh hnam dônuh la mai oh kon koâng, jônang ñeh kon tro tôdrong daân soâ</t>
+  </si>
+  <si>
+    <t>Đây là chính sách cần thiết nhằm ổn định tình hình dân số, kế hoạch hóa gia đình và bảo vệ quyền lợi cho phụ nữ tại vùng đồng bào dân tộc thiểu số.</t>
+  </si>
+  <si>
+    <t>Anu la tôdrong kô waê sö alöng tôdrong daân soâ, keâ hoach hoa unh hnam oeng jö vei quyeân lôi aên mai o lôm apung naê ma kon koâng.</t>
+  </si>
+  <si>
+    <t>Sáng ngày 9.10, Huyện ủy Vĩnh Thạnh tổ chức Hội nghị BCH đảng bộ huyện lần thứ 18 nhằm đánh giá tình hình thực hiện nhiệm vụ 9 tháng đầu năm và triển khai nhiệm vụ 3 tháng còn lại năm 2019</t>
+  </si>
+  <si>
+    <t>Bôgheâ naêr 09/10, Huyeân uy Vinh Thanh pôlok Hoâi nghi Ban chaâp hanh Ñang boâ huyeân maêng maê 18 sö pôtho khan tôdrong pôm nhieâm vu 9 khei kôl sônaêm oeng pônhroh tôdrong pôm 3 khei araê sônaêm 2019</t>
+  </si>
+  <si>
+    <t>Trong 9 tháng đầu năm, tổng giá trị sản xuất tăng 14 % so với cùng kỳ, giá trị sản xuất nông, lâm, thủy sản ước đạt 74,5% kế hoạch, tăng 22% so với cùng kỳ</t>
+  </si>
+  <si>
+    <t>Lôm 9 khei kôl sônaêm, pôting giaê tri choh jang kjung 14% pôting adring kung ky, giaê tri choh jang noâng, laâm, thuy san öôk ñat 74,5% glong pônhroh, kjung 22% pôting adring kung ky</t>
+  </si>
+  <si>
+    <t>Các lĩnh vực văn hoá - xã hội có nhiều chuyển biến tích cực</t>
+  </si>
+  <si>
+    <t>Rim tôdrong vaên hoa – xa hoâi ôi lö tôplih pôjaêng</t>
+  </si>
+  <si>
+    <t>An ninh chính trị và trật tự an toàn xã hội được đảm bảo</t>
+  </si>
+  <si>
+    <t>An ninh chinh tri oeng traât tö an toan xa hoâi ñei tômaên tôl</t>
+  </si>
+  <si>
+    <t>Công tác xây dựng Đảng và củng cố hệ thống chính trị từ huyện đến cơ sở, đạt được nhiều kết quả khả quan</t>
+  </si>
+  <si>
+    <t>Tôdrong tôjung pôm Ñang oeng cung coâ tôdrong chinh tri ñông huyeân truh cô sô ñat ñei lö thu yok</t>
+  </si>
+  <si>
+    <t>Năng lực lãnh đạo của Đảng, hiệu lực, hiệu quả hoạt động quản lý, điều hành của cấp ủy, chính quyền từng bước được nâng lên</t>
+  </si>
+  <si>
+    <t>Tôdrong pôgôl ñông Ñang, thu yok tôdrong ngo hnhei, pôgôl ñông kôp uy, khul pôgôl rim tôdrong ñei poâk xuoân</t>
+  </si>
+  <si>
+    <t>Tại hội nghị, các đại biểu đã dành thời gian phân tích và chỉ rõ những hạn chế yếu kém cần khắc phục trong thời gian tới, để thực hiện hoàn thành chỉ tiêu nhiệm vụ đề ra trong 3 tháng cuối năm 2019</t>
+  </si>
+  <si>
+    <t>Dôno hoâi nghi, rim naê ma pôgôl jôh sö jônang pôñam bôl oeng chi maê ro rim tôdrong han cheâ waê kaêc phuk lôm jônang truh sö pôm keh kong rim tôdrong aên lech lôm 03 khei atuch sônaêm 2019</t>
+  </si>
+  <si>
+    <t>Theo đó, BCH Đảng bộ huyện tiếp tục phát huy nội lực, quan tâm chỉ đạo phát triển kinh tế, đầu tư phát triển sản xuất, xây dựng cơ bản, đảm bảo an sinh xã hội, đảm bảo ổn định chính trị, phòng chống có hiệu quả các loại tội phạm và tệ nạn xã hội</t>
+  </si>
+  <si>
+    <t>Boi noh, khul chaâp hanh Ñang boâ huyeân ling lang pôjing noâi lök, ngo hnhei pôgôl pôjing kinh teâ, tôgum pôjing choh jang, tôjung pôm kô ban, tômaên tôl an sinh xa hoâi, tômaên tôl alöng chinh tri, phong dôt ôi thu yok rim loai bôngai pôm glaêi oeng teâ nan xa hoâi</t>
+  </si>
+  <si>
+    <t>Chú trọng công tác phát triển đảng viên, tiếp tục thực hiện Nghị quyết số 18 của BCH TƯ Đảng Khóa XII về sắp xếp bộ máy tinh gọn, hoạt động hiệu quả, đẩy mạnh củng cố xây dựng tổ chức cơ sở Đảng trong sạch vững mạnh, nâng cao năng lực lãnh đạo và sức chiến đấu của tổ chức cơ sở Đảng</t>
+  </si>
+  <si>
+    <t>Ngo hnhei tôdrong pôjing ñang vieân, ling lang pôm Nghi quyeât ksoâ 18 ñông Khul chaâp hanh TÖ Ñang khoa XIII lôm sap xeâp boâ may alöng, pôm ôi thu yok, jôraê deâh cung coâ tôjung pôm toâ chöc cô sô Ñang uoâl ieâl kôjaêp, poâk xuoân tôdrong pôgôl oeng jaêng tôplah ñông toâ chöc cô sô Ñang</t>
+  </si>
+  <si>
+    <t>Triển khai có hiệu quả nội dung học tập và làm theo tư tưởng, đạo đức, phong cách Hồ Chí Minh về nêu cao tinh thần trách nhiệm chống chủ nghĩa cá nhân gắn với thực hiện các chỉ thị, nghị quyết của Trung ương về xây dựng Đảng</t>
+  </si>
+  <si>
+    <t>Pônhroh ôi thu yok tôdrong hok tôp oeng pôm boi nöih sôngöm yaêl arih alöng lieâm HCM lôm poâk xuoân nöih sôngöm trach nhieâm dôt chu nghia kôdih ôkôu pôtep adring pôm rim chi thi, nghi quyeât ñông Trung öông lôm tôjung pôm Ñang</t>
+  </si>
+  <si>
+    <t>Dịp này, Huyện ủy Vĩnh Thạnh cũng đã dành thời gian triển khai nội dung Chỉ thị 35 ngày 30.5.2019 của Bộ Chính trị và Kế hoạch thực hiện Chỉ thị 35 của Huyện ủy Vĩnh Thạnh về đại hội đảng bộ các cấp tiến tới Đại hội đại biểu toàn quốc lần thứ XIII của Đảng</t>
+  </si>
+  <si>
+    <t>Maêng maê anu, Huyeân uy Vinh Thanh kung jôh sö jônang pônhroh noâi dung chi thi 35 naêr 30/5/2019 ñông Boâ chinh tri oeng glong pônhroh pôm chi thi 35 ñông Huyeân uy Vinh Thanh lôm Ñai hoâi Ñang boâ rim kôp naêm truh Ñai hoâi Ñai bieâu toan quoâc maêng maê XIII ñông Ñang</t>
+  </si>
+  <si>
+    <t>Phát biểu kết luận hội nghị, đồng chí Hồ Xuân Ánh - Tỉnh ủy viên, Bí thư Huyện ủy nhấn mạnh những kết quả đạt được và hạn chế trong công tác lãnh đạo, chỉ đạo tổ chức thực hiện nhiệm vụ chính trị 9 tháng đầu năm, đồng thời chỉ ra một số nhiệm vụ công tác trọng tâm của 3 tháng cuối năm 2019</t>
+  </si>
+  <si>
+    <t>Pôñam bôl atuch Hoâi nghi, ñ/c Hoâ Xuaân Anh – Tinh uy vieân, Bi thö Huyeân uy pôñam deâh rim thu yok ñat ñei oeng tôdrong han cheâ lôm tôdrong pôgôl pôlok pôm tôdrong chinh tri 9 khei kôl sônaêm, thoi noh pôchi lech minh ksoâ tôdrong pôm pôgloh ñông 3 khei atuch sônaêm 2019</t>
+  </si>
+  <si>
+    <t>Giao nhiệm vụ cho các tổ chức cơ sở Đảng tập trung lãnh đạo thực hiện thắng lợi các nhiệm vụ kinh tế - xã hội, định hướng tư tưởng đảm bảo sự ổn định, thống nhất trong Đảng và sự đồng thuận trong nhân dân</t>
+  </si>
+  <si>
+    <t>Pôjao tôdrong pôm aên rim toâ chöc cô sô Ñang pônhoâm pôgôl pôm thaêng lôi rim tôdrong kinh teâ xa hoâi, ñinh höông nöih sôngöm tômaên tôl tôdrong alöng lôm Ñang oeng tôdrong kô waê ñông kon tôring</t>
+  </si>
+  <si>
+    <t>Đẩy mạnh củng cố xây dựng tổ chức cơ sở Đảng trong sạch vững mạnh, nâng cao năng lực lãnh đạo và sức chiến đấu của tổ chức cơ sở Đảng</t>
+  </si>
+  <si>
+    <t>Jôraê deâh cung coâ tôjung pôm toâ chöc cô sô Ñang uoâl ieâl kôjaêp, poâk xuoân tôdrong pôgôl oeng jaêng tôplah ñông toâ chöc cô sô Ñang</t>
+  </si>
+  <si>
+    <t>Về công tác chuẩn bị Đại hội Đảng bộ các cấp tiến tới Đại hội XIII của Đảng, đồng chí Bí thư Huyện ủy đề nghị các đại biểu cần tiếp thu nghiêm túc và triển khai thực hiện tốt Chỉ thị số 35 ngày 30/5/2019 của Bộ Chính trị về Đại hội Đảng bộ các cấp tiến tới Đại hội Đại biểu toàn quốc lần thứ XIII của Đảng</t>
+  </si>
+  <si>
+    <t>Lôm tôdrong goâ ñech Ñai hoâi Ñang boâ rim kôp naêm truh Ñai hoâi XIII ñông Ñang, ñ/c Bi thö huyeân uy pôkaê rim naê ma pôgôl waê tieâp thu tôpaê oeng pônhroh pôm hôgei chi thi ksoâ 35 naêr 30/5/2019 ñông Boâ chinh tri lôm Ñai hoâi Ñang boâ rim kôp naêm truh Ñai hoâi Ñai bieâu toan quoâc maêng maê XIII ñông Ñang</t>
+  </si>
+  <si>
+    <t>Xây dựng kế hoạch tổ chức đại hội các chi bộ, đảng bộ; chuẩn bị tốt công tác nhân sự cấp ủy đảm bảo chặt chẽ, đúng điều lệ, quy chế, quy định. Từ đó, tạo sự thống nhất cao về ý chí và hành động, lãnh đạo, chỉ đạo thực hiện tốt công tác chuẩn bị về mọi mặt để tổ chức thành công Đại hội Đảng các cấp tiến tới Đại hội Đại biểu toàn quốc lần thứ XIII của Đảng và thực hiện tốt nhiệm vụ chính trị của địa phương, đơn vị</t>
+  </si>
+  <si>
+    <t>Tôjung pôm glong pônhroh pôlok ñai hoâi rim chi boâ, ñang boâ; goâ ñech hôgei tôdrong nhaân sö kôp uy tômaên tôl kôjaêp, trô tro tôdrong. Ñông noh, pôm tôdrong thoâng nhaât lôm nöih sôngöm oeng tôdrong pôm, pôgôl pôm hôgei tôdrong goâ ñech lôm ñi ñaêng rim tôdrong sö pôlok keh kong Ñai hoâi Ñang rim kôp naêm truh Ñai hoâi Ñai bieâu toan quoâc maêng maê XIII ñông Ñang oeng pôm hôgei tôdrong chinh tri ñông cham pôlei, ñôn vi</t>
+  </si>
+  <si>
+    <t>Thực hiện Chỉ thị số 35, ngày 30/5/2019 của Bộ Chính trị “về đại hội đảng bộ các cấp tiến tới Đại hội đại biểu toàn quốc lần thứ XIII của Đảng”, Ban Chấp hành Đảng bộ huyện đã ban hành Kế hoạch số 66-KH/TU, ngày 19.8.2019 về triển khai thực hiện đại hội đảng bộ các cấp</t>
+  </si>
+  <si>
+    <t>Pôm chi thi ksoâ 35 naêr 30/5/2019 ñông Boâ chinh tri lôm Ñai hoâi ñang boâ rim kôp naêm truh Ñai hoi ñai bieâu toan quoâc maêng maê XIII ñông Ñang, Khul chaâp hanh Ñang boâ huyeân jôh aên lech glong pônhroh ksoâ 66-KH/TU, naêr 19/8/2019 lôm pônhroh pôm ñai hoâi ñang boâ rim kôp</t>
+  </si>
+  <si>
+    <t>Theo đó, Huyện ủy xác định Đại hội đảng bộ từ huyện đến cơ sở thực hiện 04 nội dung: Tổng kết việc thực hiện nghị quyết đại hội đảng bộ, chi bộ nhiệm kỳ 2015 - 2020 và xác định phương hướng, mục tiêu, nhiệm vụ, giải pháp của đảng bộ, chi bộ nhiệm kỳ 2020 - 2025</t>
+  </si>
+  <si>
+    <t>Boi noh, Huyeân uy pôtho khan Ñai hoâi ñang boâ ñông huyeân truh cô sô pôm 04 tôdrong: Toâng keât tôdrong pôm nghi quyeât ñai hoâi ñang boâ, chi boâ nhieâm ky 2015 – 2020 oeng pôtho khan tôdrong pôm ñông ñang boâ, chi boâ nhieâm ky 2020 – 2025</t>
+  </si>
+  <si>
+    <t>Thảo luận, đóng góp ý kiến vào dự thảo các văn kiện Đại hội đại biểu toàn quốc lần thứ XIII của Đảng và dự thảo văn kiện đại hội đảng cấp trên trực tiếp</t>
+  </si>
+  <si>
+    <t>Pôñam bôl, pôgop y kieân tômöt dö thao rim vaên kieân ñai hoâi ñai bieâu toan quoâc maêng maê XIII ñông Ñang oeng dö thao vaên kieân ñai hoâi ñang kôp kôpöng trök tieâp</t>
+  </si>
+  <si>
+    <t>Bầu ban chấp hành đảng bộ, chi bộ nhiệm kỳ 2020 - 2025</t>
+  </si>
+  <si>
+    <t>Bôu khul chôp hanh ñang boâ, chi boâ nhieâm ky 2020 – 2025</t>
+  </si>
+  <si>
+    <t>Bầu đoàn đại biểu dự đại hội đảng bộ cấp trên</t>
+  </si>
+  <si>
+    <t>Bôu khul naê ma pôgôl dö ñai hoâi ñang boâ kôp kôpöng</t>
+  </si>
+  <si>
+    <t>Những nơi có khó khăn liên quan đến công tác nhân sự, được cấp ủy có thẩm quyền đồng ý thì tiến hành đại hội với 3 nội dung, chưa thực hiện nội dung thứ 3 về bầu cấp ủy khóa mới</t>
+  </si>
+  <si>
+    <t>Rim dô no hrat tônap lieân quan truh tôdong nhaân sö, ñei kôp uy ôi thaâm quyeân ñoâng y thi pôlok ñai hoâi adring 03 tôdrong, ñim pôm tôdrong maêng maê 3 lôm bôu kôp uy khoa anao</t>
+  </si>
+  <si>
+    <t>Về thời gian tiến hành đại hội: Đại hội các chi bộ trực thuộc đảng bộ cơ sở không quá 1 ngày, tổ chức trong quý I năm 2020 và hoàn thành trước ngày 31.3.2020</t>
+  </si>
+  <si>
+    <t>Lôm jônang pôlok ñai hoâi: Ñai hoâi rim chi boâ trök thuoâc ñang boâ cô sô bi loi 01 naêr, pôlok lôm quy I sônaêm 2020 oeng keh kong adrol naêr 31/3/2020</t>
+  </si>
+  <si>
+    <t>Đại hội chi bộ cơ sở không quá 1 ngày, đại hội đảng bộ cấp cơ sở không quá 2 ngày; bắt đầu từ tháng 4/2020, hoàn thành trước ngày 30/6/2020</t>
+  </si>
+  <si>
+    <t>Ñai hoâi chi boâ cô sô bi loi 01 naêr, ñai hoâi ñang boâ cô sô bi loi 02 naêr; pôlok pôm ñông khei 4/2020, keh kong adrol naêr 30/6/2020</t>
+  </si>
+  <si>
+    <t>Đại hội đại biểu Đảng bộ huyện lần thứ XVIII dự kiến tổ chức vào tháng 8 năm 2020</t>
+  </si>
+  <si>
+    <t>Ñai hoâi ñai bieâu Ñang boâ huyeân maêng maê XVIII pôtho khan pôlok tômöt khei 8/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,9 +516,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="VNI-Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -540,13 +548,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,13 +865,14 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,620 +884,620 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="108" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="108" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
